--- a/Input example.xlsx
+++ b/Input example.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Ferronor\Problema cruzamientos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E94E68-70D1-450E-B627-8D724CA76998}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0B3ED6-07DC-4929-BF6E-DB4DB365534E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12983" activeTab="3" xr2:uid="{D17828E7-1559-440D-A805-2D7A5A64AA26}"/>
   </bookViews>
@@ -37,7 +32,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Admin</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7A33D04E-C917-41AE-AF9D-D6E6E7754C1D}">
@@ -75,7 +70,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Admin</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8B6154FC-ACB2-4968-B876-89E46506A19C}">
@@ -141,7 +136,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Admin</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{12262C59-CB58-430D-A733-5DABC3FA6A3D}">
@@ -236,7 +231,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Admin</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DCACF40A-97EB-45F4-B961-0F5400752814}">
@@ -352,7 +347,7 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Admin</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9EF56C80-B544-4362-AA38-06B0080E4C52}">
@@ -468,7 +463,7 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Admin</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{48E88D05-31B9-4CBA-8856-14824B99450B}">
@@ -1340,9 +1335,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1396,9 +1392,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1680,9 +1677,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2051,9 +2049,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2289,9 +2288,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2430,9 +2430,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>